--- a/Perf_Graph.xlsx
+++ b/Perf_Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/cjani_cisco_com/Documents/Desktop/personal/MTech-DSE/Semester-1/Datastructure-algo/Assignment/Code-1/sem1ds1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03768F56-3C55-47CC-AB46-A8E2A3154516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{03768F56-3C55-47CC-AB46-A8E2A3154516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49FABF6-60DF-41B0-8DFA-367BA9593C48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A0FC395-475A-42A6-930C-AA318904BC3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Input Data Size</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Time-Insert-sorted-list(ms)</t>
+  </si>
+  <si>
+    <t>Time-Insert-queue-listms)</t>
+  </si>
+  <si>
+    <t>Time-Insert-sorted-list (ms)</t>
+  </si>
+  <si>
+    <t>Time-delete-queue-Array(ms)</t>
+  </si>
+  <si>
+    <t>Time-delete-queue-list(ms)</t>
+  </si>
+  <si>
+    <t>Time-delete-sort-list(ms)</t>
   </si>
 </sst>
 </file>
@@ -137,7 +152,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Queue-Array-Insert</a:t>
+              <a:t>Queue-Array-Insert-bulk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -509,7 +524,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>queue-list-insert</a:t>
+              <a:t>queue-list-insert-bulk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -881,7 +896,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>sorted-list-insert</a:t>
+              <a:t>sorted-list-insert-bulk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1218,6 +1233,2248 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Queue-Array-Insert-Element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED8E-47EC-910F-3515C89841FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-Insert-queue-listms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED8E-47EC-910F-3515C89841FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="981426175"/>
+        <c:axId val="836646495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="981426175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836646495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836646495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981426175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Queue-list-insert-element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1478031496062992"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.85219685039370074"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46D6-443D-B422-A9E8154E62D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-Insert-queue-list (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46D6-443D-B422-A9E8154E62D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="495207727"/>
+        <c:axId val="830857727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="495207727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830857727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830857727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495207727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>sort-list-insert-element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8CB-4222-8A85-C971F31AAB34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-Insert-sorted-list (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8CB-4222-8A85-C971F31AAB34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1062399583"/>
+        <c:axId val="934297311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062399583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934297311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934297311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062399583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Queue-Array-delete-element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0518-4D41-A31F-EFED125A2B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-delete-queue-Array(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0518-4D41-A31F-EFED125A2B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1062421183"/>
+        <c:axId val="816113231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062421183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816113231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="816113231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062421183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Queue-list-delete-element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68D5-44BB-B309-9839307429A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-delete-queue-list(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68D5-44BB-B309-9839307429A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1062392863"/>
+        <c:axId val="1071998239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062392863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071998239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1071998239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062392863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>sort-list-delete-element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input Data Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$28:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5AA-4709-90CE-1C64842135B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-delete-sort-list(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$28:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5AA-4709-90CE-1C64842135B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1062392383"/>
+        <c:axId val="830863183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062392383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830863183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830863183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062392383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1338,6 +3595,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2886,18 +5383,3114 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2926,16 +8519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1762124</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2962,16 +8555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2991,6 +8584,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D3453-1E63-DBBC-6ABB-336C6D7F2BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CF5A98-9B57-8C8C-A3F0-01B1CF30FDFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21345749-B16D-3F49-FB74-EC8D9FA73557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3471CBB-C75F-50E4-067E-B8C49DCC2514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C2A6F2-A8C8-BE42-4E8A-31C04806A787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE01229F-1B4F-6448-AE32-2368D6F53722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3296,77 +9105,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D801913-F389-494C-B133-75A0CD35170B}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
         <v>98</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>1.38</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3">
         <v>9200</v>
       </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>1.66</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
         <v>134400</v>
       </c>
+      <c r="H4">
+        <v>100000</v>
+      </c>
+      <c r="I4">
+        <v>2.44</v>
+      </c>
+      <c r="N4">
+        <v>100000</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
       <c r="B15">
         <v>98.51</v>
       </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
+      <c r="I15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N15">
+        <v>10000</v>
+      </c>
+      <c r="O15">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
       <c r="B16">
         <v>5901</v>
       </c>
+      <c r="H16">
+        <v>100000</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="N16">
+        <v>100000</v>
+      </c>
+      <c r="O16">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100000</v>
       </c>
@@ -3374,36 +9286,84 @@
         <v>114997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
       <c r="B28">
         <v>131</v>
       </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000</v>
       </c>
       <c r="B29">
         <v>14560</v>
       </c>
+      <c r="H29">
+        <v>10000</v>
+      </c>
+      <c r="I29">
+        <v>0.7</v>
+      </c>
+      <c r="N29">
+        <v>10000</v>
+      </c>
+      <c r="O29">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100000</v>
       </c>
       <c r="B30">
         <v>137738</v>
+      </c>
+      <c r="H30">
+        <v>100000</v>
+      </c>
+      <c r="I30">
+        <v>1.61</v>
+      </c>
+      <c r="N30">
+        <v>100000</v>
+      </c>
+      <c r="O30">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
